--- a/mcq-backend/Book.xlsx
+++ b/mcq-backend/Book.xlsx
@@ -989,7 +989,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -998,16 +998,16 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1019,34 +1019,34 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>5</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -1063,13 +1063,13 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>BCE1822</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1167,34 +1167,34 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">

--- a/mcq-backend/Book.xlsx
+++ b/mcq-backend/Book.xlsx
@@ -989,25 +989,25 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1019,25 +1019,25 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P2">
         <v>5</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">

--- a/mcq-backend/Book.xlsx
+++ b/mcq-backend/Book.xlsx
@@ -896,14 +896,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
+      <c r="A1">
+        <v>0</v>
       </c>
       <c r="B1" t="str">
         <v>Candidate Name</v>
@@ -1001,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -1025,7 +1025,7 @@
         <v>5</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R2">
         <v>5</v>
@@ -1034,19 +1034,19 @@
         <v>5</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U2">
         <v>5</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X2">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -1054,16 +1054,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>Sanjil</v>
+        <v>Sidhu</v>
       </c>
       <c r="C3" t="str">
-        <v>BCE1919</v>
+        <v>BCE1822</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1128,16 +1128,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>Sidhu</v>
+        <v>Shasvath</v>
       </c>
       <c r="C4" t="str">
-        <v>BCE1822</v>
+        <v>BCE1081</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1188,92 +1188,18 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Shasvath</v>
-      </c>
-      <c r="C5" t="str">
-        <v>BCE1081</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>5</v>
-      </c>
-      <c r="W5">
-        <v>5</v>
-      </c>
-      <c r="X5">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:X5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:X4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/mcq-backend/Book.xlsx
+++ b/mcq-backend/Book.xlsx
@@ -896,14 +896,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1">
-        <v>0</v>
+      <c r="A1" t="str">
+        <v>ID</v>
       </c>
       <c r="B1" t="str">
         <v>Candidate Name</v>
@@ -989,25 +989,25 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>5</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1025,28 +1025,28 @@
         <v>5</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -1054,73 +1054,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>Sidhu</v>
+        <v>Shasvath</v>
       </c>
       <c r="C3" t="str">
-        <v>BCE1822</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
+        <v>BCE1081</v>
       </c>
     </row>
     <row r="4">
@@ -1128,78 +1065,89 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>Shasvath</v>
+        <v>Sidhu</v>
       </c>
       <c r="C4" t="str">
-        <v>BCE1081</v>
-      </c>
-      <c r="D4">
+        <v>BCE1822</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Manish</v>
+      </c>
+      <c r="C5" t="str">
+        <v>BCE777</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>5</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>5</v>
-      </c>
-      <c r="W4">
-        <v>5</v>
-      </c>
-      <c r="X4">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:X4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:X5"/>
   </ignoredErrors>
 </worksheet>
 </file>